--- a/LOGS/4b7ce145-550f-4835-9c82-86b4f77a291e/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/4b7ce145-550f-4835-9c82-86b4f77a291e/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="71">
   <si>
     <t>line_item_0</t>
   </si>
@@ -903,7 +903,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
